--- a/ILDAC.xlsx
+++ b/ILDAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\CMSAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B73AC-CA3C-4312-AADF-756B543A89E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3432243-97DE-405F-8B23-9F3CAF480E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>R</t>
   </si>
@@ -51,20 +51,53 @@
     <t>TP13-TP14</t>
   </si>
   <si>
-    <t>Fattore di specchio = 170</t>
-  </si>
-  <si>
     <t>nA</t>
   </si>
   <si>
     <t>62K</t>
+  </si>
+  <si>
+    <t>TP16-TP17</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fattore di specchio </t>
+  </si>
+  <si>
+    <t>TEST 150fF</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>150 fF</t>
+  </si>
+  <si>
+    <t>PREAMP_CURR</t>
+  </si>
+  <si>
+    <t>30 uA</t>
+  </si>
+  <si>
+    <t>70 uA</t>
+  </si>
+  <si>
+    <t>Soglia</t>
+  </si>
+  <si>
+    <t>elettroni</t>
+  </si>
+  <si>
+    <t>mV CALHI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +107,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,6 +159,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -398,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:F22"/>
+  <dimension ref="A4:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,12 +456,21 @@
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -428,8 +480,21 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>8</v>
       </c>
@@ -439,24 +504,51 @@
       <c r="E6" s="2">
         <v>44.8</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <v>520</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>1200</v>
+      </c>
+      <c r="N7">
+        <v>524</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>67.2</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>1500</v>
+      </c>
+      <c r="N8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>13</v>
       </c>
@@ -464,7 +556,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>14</v>
       </c>
@@ -472,7 +564,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>16</v>
       </c>
@@ -480,7 +572,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>18</v>
       </c>
@@ -488,7 +580,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>20</v>
       </c>
@@ -496,7 +588,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
@@ -505,12 +600,15 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -522,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0</v>
       </c>
@@ -530,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5</v>
       </c>
@@ -547,7 +645,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>10</v>
       </c>
@@ -558,7 +656,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>15</v>
       </c>
@@ -569,7 +667,10 @@
         <v>158.1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
       <c r="B22">
         <v>20</v>
       </c>
@@ -578,6 +679,44 @@
       </c>
       <c r="E22" s="2">
         <v>210.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6.7999999999999995E-7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>42.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.3599999999999999E-6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>84.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.04E-6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>126.48</v>
       </c>
     </row>
   </sheetData>

--- a/ILDAC.xlsx
+++ b/ILDAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\CMSAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3432243-97DE-405F-8B23-9F3CAF480E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA343F2-87BC-495C-87C8-7CE2CAA51307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>R</t>
   </si>
@@ -91,13 +91,40 @@
   </si>
   <si>
     <t>mV CALHI</t>
+  </si>
+  <si>
+    <t>30uA</t>
+  </si>
+  <si>
+    <t>Devo testare la noise occupancy</t>
+  </si>
+  <si>
+    <t>72mV</t>
+  </si>
+  <si>
+    <t>2.4 kOhm</t>
+  </si>
+  <si>
+    <t>14uA</t>
+  </si>
+  <si>
+    <t>TP 19-20</t>
+  </si>
+  <si>
+    <t>SOGLIA (elettroni)</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>a scendere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +144,28 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -443,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +506,7 @@
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:17" x14ac:dyDescent="0.3">
@@ -463,12 +516,17 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
@@ -480,19 +538,21 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
@@ -504,18 +564,21 @@
       <c r="E6" s="2">
         <v>44.8</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
         <v>1000</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="9">
         <v>520</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
@@ -524,15 +587,19 @@
       <c r="E7" s="2">
         <v>56</v>
       </c>
-      <c r="M7">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
         <v>1200</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="9">
         <v>524</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
@@ -541,12 +608,17 @@
       <c r="E8" s="2">
         <v>67.2</v>
       </c>
-      <c r="M8">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
         <v>1500</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="9">
         <v>530</v>
       </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
@@ -589,7 +661,27 @@
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
@@ -605,8 +697,24 @@
       <c r="H16">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -620,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0</v>
       </c>
@@ -634,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5</v>
       </c>
@@ -644,8 +752,14 @@
       <c r="E19" s="2">
         <v>52.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>10</v>
       </c>
@@ -656,7 +770,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>15</v>
       </c>
@@ -667,7 +781,7 @@
         <v>158.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -681,12 +795,12 @@
         <v>210.8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>4</v>
       </c>
@@ -697,7 +811,7 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>8</v>
       </c>
@@ -708,7 +822,7 @@
         <v>84.32</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>12</v>
       </c>

--- a/ILDAC.xlsx
+++ b/ILDAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\CMSAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA343F2-87BC-495C-87C8-7CE2CAA51307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC20924-A5D9-4AD9-A38E-0714EE148FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>R</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>a scendere</t>
+  </si>
+  <si>
+    <t>50uA</t>
+  </si>
+  <si>
+    <t>70uA</t>
+  </si>
+  <si>
+    <t>120mV</t>
+  </si>
+  <si>
+    <t>168mV</t>
   </si>
 </sst>
 </file>
@@ -495,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -727,8 +739,17 @@
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0</v>
       </c>
@@ -741,8 +762,14 @@
       <c r="E18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5</v>
       </c>
@@ -759,7 +786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>10</v>
       </c>
@@ -770,7 +797,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>15</v>
       </c>
@@ -781,7 +808,7 @@
         <v>158.1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -795,12 +822,12 @@
         <v>210.8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>4</v>
       </c>
@@ -811,7 +838,7 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>8</v>
       </c>
@@ -822,7 +849,7 @@
         <v>84.32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>12</v>
       </c>

--- a/ILDAC.xlsx
+++ b/ILDAC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\CMSAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC20924-A5D9-4AD9-A38E-0714EE148FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FCF9E1-E4AF-40CC-8869-4A23F4581516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>R</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>168mV</t>
+  </si>
+  <si>
+    <t>SOGLIA IN FUNZIONE DEI TDAC CODES</t>
+  </si>
+  <si>
+    <t>RD53A</t>
+  </si>
+  <si>
+    <t>RD53B</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:Q27"/>
+  <dimension ref="A4:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,6 +682,12 @@
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2">
+        <v>123.2</v>
+      </c>
       <c r="K14" t="s">
         <v>23</v>
       </c>
@@ -858,6 +873,19 @@
       </c>
       <c r="E27" s="2">
         <v>126.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
